--- a/KUtil/KMM1_MR01/20231215-01@자재(품목)청구서_1.xlsx
+++ b/KUtil/KMM1_MR01/20231215-01@자재(품목)청구서_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F9ECAC2-5C8B-4599-AF07-AE0238CA34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4823E840-0E52-4A98-9A24-C34DC90B86A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E0668F82-FE6A-4B1E-9DE3-E168F7789B7A}"/>
+    <workbookView xWindow="8970" yWindow="1545" windowWidth="16380" windowHeight="12690" xr2:uid="{5CEC9C0B-28E7-4C2A-9B83-137A96CEB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
@@ -1764,10 +1764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683B93C-1BE3-4828-BAF7-63052DEC08E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658450C0-99FE-484B-B265-FD0EE6846883}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:I61"/>
     </sheetView>
   </sheetViews>
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A7F0F8-D15A-4DEA-9F0B-39D781D7D41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A31FCA-A41A-4FFE-8589-F902803515FF}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4092,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3C5CDF-FFDF-4E2A-A0FE-0A1B3E9E7652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A024FC-5CA5-4B28-A2AF-853EC6425EF0}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
